--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルは注射用法の制約と拡張のうち共通部分を定めている。</t>
+    <t>このデータタイプは注射用法の制約と拡張のうち共通部分を定めている。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,10 +246,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -318,36 +315,36 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>periodOfUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
+    <t>dosageComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_DosageComment}
 </t>
   </si>
   <si>
-    <t>投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>usageDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_UsageDuration}
+    <t>用法コメント</t>
+  </si>
+  <si>
+    <t>用法コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Device}
 </t>
   </si>
   <si>
-    <t>実投与日数</t>
-  </si>
-  <si>
-    <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
+    <t>投与装置</t>
+  </si>
+  <si>
+    <t>投与装置を格納する拡張</t>
   </si>
   <si>
     <t>line</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Line}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Line}
 </t>
   </si>
   <si>
@@ -357,17 +354,17 @@
     <t>指示ラインを格納する拡張</t>
   </si>
   <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Device}
+    <t>lineComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_LineComment}
 </t>
   </si>
   <si>
-    <t>投与装置</t>
-  </si>
-  <si>
-    <t>投与装置を格納する拡張</t>
+    <t>ラインコメント</t>
+  </si>
+  <si>
+    <t>ラインコメントを格納するための拡張</t>
   </si>
   <si>
     <t>Dosage.modifierExtension</t>
@@ -433,7 +430,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+    <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
   </si>
   <si>
     <t>RXO-6; RXE-21</t>
@@ -461,7 +458,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
   </si>
   <si>
     <t>RXO-7</t>
@@ -851,10 +848,10 @@
   </si>
   <si>
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
-【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageInjection_VS</t>
+【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageInjection_VS</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -902,7 +899,7 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -911,62 +908,39 @@
     <t>RXR-2</t>
   </si>
   <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>投与経路</t>
-  </si>
-  <si>
-    <t>投与経路の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
-【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>投与方法</t>
-  </si>
-  <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
-  </si>
-  <si>
-    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXR-4</t>
-  </si>
-  <si>
-    <t>Dosage.method.id</t>
-  </si>
-  <si>
-    <t>Dosage.method.extension</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding</t>
+    <t>Dosage.site.id</t>
+  </si>
+  <si>
+    <t>Dosage.site.extension</t>
+  </si>
+  <si>
+    <t>siteComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_SiteComment}
+</t>
+  </si>
+  <si>
+    <t>投与部位コメント</t>
+  </si>
+  <si>
+    <t>投与部位コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {bodySite}
+</t>
+  </si>
+  <si>
+    <t>身体部位の位置に関する詳細</t>
+  </si>
+  <si>
+    <t>身体部位の位置に関する詳細情報。site概念がユースケースに必要な詳細を提供しない場合に使用される。</t>
+  </si>
+  <si>
+    <t>Dosage.site.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -985,19 +959,139 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Dosage.site.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>投与経路</t>
+  </si>
+  <si>
+    <t>投与経路の一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
+【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>Dosage.route.id</t>
+  </si>
+  <si>
+    <t>Dosage.route.extension</t>
+  </si>
+  <si>
+    <t>routeComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RouteComment}
+</t>
+  </si>
+  <si>
+    <t>投与経路コメント</t>
+  </si>
+  <si>
+    <t>投与経路コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>Dosage.route.coding</t>
+  </si>
+  <si>
+    <t>Dosage.route.text</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>Dosage.method.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.extension</t>
+  </si>
+  <si>
+    <t>methodComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_MethodComment}
+</t>
+  </si>
+  <si>
+    <t>手技コメント</t>
+  </si>
+  <si>
+    <t>手技コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>unitDigit1</t>
   </si>
   <si>
@@ -1013,7 +1107,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>Dosage.method.coding.id</t>
@@ -1149,7 +1243,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1158,15 +1252,6 @@
     <t>Dosage.method.text</t>
   </si>
   <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
     <t>Dosage.doseAndRate</t>
   </si>
   <si>
@@ -1185,19 +1270,32 @@
     <t>Dosage.doseAndRate.extension</t>
   </si>
   <si>
+    <t>rateComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RateComment}
+</t>
+  </si>
+  <si>
+    <t>投与速度コメント</t>
+  </si>
+  <si>
+    <t>投与速度コメントを格納するための拡張</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate.type</t>
   </si>
   <si>
     <t>力価区分</t>
   </si>
   <si>
-    <t>投与速度・量の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+    <t>投与速度・量の一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1206,17 +1304,17 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Quantity
-Range</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
@@ -1229,7 +1327,18 @@
     <t>closed</t>
   </si>
   <si>
-    <t>RXO-2, RXE-3</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>doseQuantity</t>
@@ -1246,48 +1355,17 @@
 【JP Core仕様】1回の投与量（体積）を指定する。単位はUCUMを使用する。</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>doseRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
-</t>
-  </si>
-  <si>
-    <t>薬剤の単位指定された上限下限量</t>
-  </si>
-  <si>
-    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
     <t>Dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
-</t>
+    <t>Ratio
+RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>薬剤の投与量速度</t>
+  </si>
+  <si>
+    <t>薬剤が投与される量の速度</t>
   </si>
   <si>
     <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.@@ -1307,11 +1385,11 @@
     <t>rateRatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerDay}
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
 </t>
   </si>
   <si>
-    <t>１日当たりでの薬剤の投入量</t>
+    <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
     <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
@@ -1331,20 +1409,32 @@
 </t>
   </si>
   <si>
-    <t>時間範囲指定された上限下限量</t>
-  </si>
-  <si>
-    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+    <t>範囲指定された時間の上限下限</t>
+  </si>
+  <si>
+    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。Low,Highの値は時間の単位当てはめる。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t>投与速度(流量)を指定する単位は流量を表す単位（e.g. 量/時間)を指定する</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
-</t>
-  </si>
-  <si>
-    <t>単位時間内での薬剤の容量</t>
+    <t>単位時間当たりの投薬量の上限</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
@@ -1353,7 +1443,7 @@
     <t>Dosage.maxDosePerAdministration</t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
+    <t>1回あたりの投薬量の上限</t>
   </si>
   <si>
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
@@ -1363,6 +1453,9 @@
   </si>
   <si>
     <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>生涯の投薬量の上限</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
@@ -1672,7 +1765,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK74"/>
+  <dimension ref="A1:AK87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1682,7 +1775,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="34.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.5390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.10546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1705,7 +1798,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="76.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.4375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1864,7 +1957,7 @@
         <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1927,10 +2020,10 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>74</v>
@@ -1938,7 +2031,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1949,25 +2042,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -2018,22 +2111,22 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>74</v>
@@ -2041,11 +2134,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -2064,16 +2157,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -2111,19 +2204,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -2135,10 +2228,10 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -2146,10 +2239,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>74</v>
@@ -2159,7 +2252,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -2171,13 +2264,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2228,7 +2321,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -2240,7 +2333,7 @@
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -2251,10 +2344,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>74</v>
@@ -2264,7 +2357,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -2276,13 +2369,13 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2333,7 +2426,7 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -2345,7 +2438,7 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
@@ -2356,10 +2449,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>74</v>
@@ -2381,13 +2474,13 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2438,7 +2531,7 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -2450,7 +2543,7 @@
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>74</v>
@@ -2461,10 +2554,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>74</v>
@@ -2486,13 +2579,13 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2543,7 +2636,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2555,7 +2648,7 @@
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>74</v>
@@ -2566,11 +2659,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2583,25 +2676,25 @@
         <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="I9" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>74</v>
@@ -2650,7 +2743,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2662,10 +2755,10 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2673,7 +2766,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2684,7 +2777,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>74</v>
@@ -2693,22 +2786,22 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -2757,30 +2850,30 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2791,31 +2884,31 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
@@ -2864,30 +2957,30 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2907,22 +3000,22 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -2947,11 +3040,11 @@
         <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>74</v>
@@ -2969,7 +3062,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2981,18 +3074,18 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3003,28 +3096,28 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3074,30 +3167,30 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3108,7 +3201,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -3120,19 +3213,19 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -3181,30 +3274,30 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3215,25 +3308,25 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J15" t="s" s="2">
+      <c r="K15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3284,22 +3377,22 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -3307,11 +3400,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3330,16 +3423,16 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3377,19 +3470,19 @@
         <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB16" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB16" t="s" s="2">
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
+      <c r="AE16" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3401,10 +3494,10 @@
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3412,11 +3505,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3429,25 +3522,25 @@
         <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3496,7 +3589,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3508,10 +3601,10 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -3519,7 +3612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3539,20 +3632,20 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3601,7 +3694,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3613,10 +3706,10 @@
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
@@ -3624,7 +3717,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3635,7 +3728,7 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>74</v>
@@ -3644,20 +3737,20 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3706,22 +3799,22 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
+      <c r="AJ19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3729,7 +3822,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3740,25 +3833,25 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J20" t="s" s="2">
+      <c r="K20" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3809,22 +3902,22 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3832,11 +3925,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3855,16 +3948,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3902,19 +3995,19 @@
         <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB21" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB21" t="s" s="2">
+      <c r="AC21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD21" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD21" t="s" s="2">
+      <c r="AE21" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3926,10 +4019,10 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -3937,7 +4030,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3948,7 +4041,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -3957,16 +4050,16 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4017,22 +4110,22 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -4040,7 +4133,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4051,7 +4144,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -4060,22 +4153,22 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -4124,22 +4217,22 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -4147,7 +4240,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4158,7 +4251,7 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -4167,19 +4260,19 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4229,22 +4322,22 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4252,7 +4345,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4263,7 +4356,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -4272,22 +4365,22 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4336,22 +4429,22 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -4359,7 +4452,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4370,7 +4463,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>74</v>
@@ -4379,22 +4472,22 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="M26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4443,22 +4536,22 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4466,7 +4559,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4477,7 +4570,7 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4486,19 +4579,19 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4524,46 +4617,46 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4571,7 +4664,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4582,7 +4675,7 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4591,86 +4684,86 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Q28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4678,7 +4771,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4689,7 +4782,7 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -4698,19 +4791,19 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4760,22 +4853,22 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4783,7 +4876,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4794,7 +4887,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -4803,19 +4896,19 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4865,22 +4958,22 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4888,7 +4981,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4899,7 +4992,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>74</v>
@@ -4908,19 +5001,19 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4970,22 +5063,22 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4993,7 +5086,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5004,7 +5097,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>74</v>
@@ -5013,19 +5106,19 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5051,14 +5144,14 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5075,22 +5168,22 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5098,7 +5191,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5118,19 +5211,19 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5156,29 +5249,29 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5190,10 +5283,10 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5201,7 +5294,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5221,19 +5314,19 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5283,7 +5376,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5295,10 +5388,10 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5306,7 +5399,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5326,22 +5419,22 @@
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5366,31 +5459,31 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5402,10 +5495,10 @@
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5413,7 +5506,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5424,7 +5517,7 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>74</v>
@@ -5433,19 +5526,19 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5495,22 +5588,22 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5518,7 +5611,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5529,7 +5622,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>74</v>
@@ -5538,19 +5631,19 @@
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5576,44 +5669,44 @@
         <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5621,7 +5714,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5632,7 +5725,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>74</v>
@@ -5641,19 +5734,19 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5703,30 +5796,30 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5737,7 +5830,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -5746,22 +5839,22 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -5786,52 +5879,52 @@
         <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5842,32 +5935,28 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -5891,11 +5980,13 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -5913,41 +6004,41 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>294</v>
+        <v>86</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>295</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>74</v>
@@ -5956,23 +6047,21 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>297</v>
+        <v>90</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
+        <v>91</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>74</v>
       </c>
@@ -5996,56 +6085,58 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>303</v>
+        <v>86</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6054,7 +6145,7 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -6066,13 +6157,13 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6123,22 +6214,22 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -6146,11 +6237,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="C43" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6169,17 +6262,15 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>295</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6216,19 +6307,19 @@
         <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6240,10 +6331,10 @@
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6251,7 +6342,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6271,22 +6362,22 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6323,17 +6414,19 @@
         <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AB44" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6345,22 +6438,20 @@
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6369,31 +6460,31 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J45" t="s" s="2">
+      <c r="K45" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6418,11 +6509,13 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6440,30 +6533,30 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6474,7 +6567,7 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>74</v>
@@ -6483,19 +6576,23 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6519,13 +6616,11 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6543,41 +6638,41 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>86</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>87</v>
+        <v>320</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>74</v>
@@ -6589,17 +6684,15 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6636,34 +6729,34 @@
         <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6671,18 +6764,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -6691,29 +6784,27 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>327</v>
+        <v>90</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>91</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>74</v>
@@ -6743,44 +6834,46 @@
         <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>333</v>
+        <v>86</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>334</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6789,7 +6882,7 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
@@ -6798,20 +6891,18 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6860,30 +6951,30 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>341</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6894,7 +6985,7 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -6903,20 +6994,22 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -6965,30 +7058,30 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>348</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6999,29 +7092,31 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7070,30 +7165,30 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>355</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7104,7 +7199,7 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>74</v>
@@ -7113,22 +7208,22 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7153,13 +7248,13 @@
         <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
+        <v>335</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>74</v>
@@ -7177,34 +7272,32 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>363</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7213,32 +7306,28 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="K53" t="s" s="2">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7262,11 +7351,13 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
@@ -7284,41 +7375,41 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>314</v>
+        <v>85</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>315</v>
+        <v>86</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>316</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>74</v>
@@ -7330,15 +7421,17 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7375,34 +7468,34 @@
         <v>74</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -7410,11 +7503,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="C55" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7433,17 +7528,15 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>74</v>
@@ -7480,19 +7573,19 @@
         <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7504,10 +7597,10 @@
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -7515,7 +7608,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7523,10 +7616,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
@@ -7535,29 +7628,29 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>74</v>
@@ -7587,44 +7680,44 @@
         <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>334</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>74</v>
       </c>
@@ -7633,7 +7726,7 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>74</v>
@@ -7642,21 +7735,23 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
       </c>
@@ -7680,13 +7775,11 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>74</v>
@@ -7704,30 +7797,30 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>341</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7738,30 +7831,28 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="K58" t="s" s="2">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>344</v>
+        <v>84</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>74</v>
       </c>
@@ -7809,41 +7900,41 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>346</v>
+        <v>85</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>347</v>
+        <v>86</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>74</v>
@@ -7852,21 +7943,21 @@
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>74</v>
       </c>
@@ -7902,42 +7993,42 @@
         <v>74</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>354</v>
+        <v>86</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>355</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7945,10 +8036,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>74</v>
@@ -7957,10 +8048,10 @@
         <v>74</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>357</v>
@@ -7979,7 +8070,7 @@
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>74</v>
+        <v>361</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>74</v>
@@ -8021,30 +8112,30 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8055,32 +8146,30 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>366</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8128,30 +8217,30 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AF61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
+      <c r="AK61" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8162,7 +8251,7 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>74</v>
@@ -8171,19 +8260,21 @@
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8231,30 +8322,30 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>74</v>
+        <v>377</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8265,28 +8356,30 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K63" t="s" s="2">
-        <v>84</v>
+        <v>380</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>85</v>
+        <v>381</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>74</v>
       </c>
@@ -8334,41 +8427,41 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>86</v>
+        <v>383</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>87</v>
+        <v>384</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>74</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
@@ -8377,21 +8470,23 @@
         <v>74</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>91</v>
+        <v>387</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>92</v>
+        <v>388</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>74</v>
       </c>
@@ -8427,44 +8522,46 @@
         <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>97</v>
+        <v>391</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>87</v>
+        <v>392</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8473,7 +8570,7 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
@@ -8482,22 +8579,22 @@
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>138</v>
+        <v>299</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -8522,11 +8619,11 @@
         <v>74</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>74</v>
@@ -8544,30 +8641,30 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>384</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8578,32 +8675,28 @@
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J66" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="K66" t="s" s="2">
-        <v>387</v>
+        <v>83</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>74</v>
       </c>
@@ -8639,53 +8732,53 @@
         <v>74</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AB66" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>385</v>
+        <v>85</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>303</v>
+        <v>86</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>74</v>
@@ -8697,20 +8790,18 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>395</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>396</v>
+        <v>90</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>396</v>
+        <v>91</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>74</v>
       </c>
@@ -8746,55 +8837,53 @@
         <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>385</v>
+        <v>96</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>399</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>400</v>
+        <v>86</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>401</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>74</v>
@@ -8803,29 +8892,29 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>74</v>
@@ -8867,30 +8956,30 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8901,32 +8990,30 @@
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="K69" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>74</v>
       </c>
@@ -8962,44 +9049,44 @@
         <v>74</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>414</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9008,7 +9095,7 @@
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>74</v>
@@ -9017,22 +9104,20 @@
         <v>74</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9081,34 +9166,32 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>122</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9117,31 +9200,29 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J71" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="K71" t="s" s="2">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9190,30 +9271,30 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>408</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9224,7 +9305,7 @@
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>74</v>
@@ -9233,22 +9314,22 @@
         <v>74</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>426</v>
+        <v>274</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
@@ -9297,30 +9378,30 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>122</v>
+        <v>393</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9331,31 +9412,31 @@
         <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="K73" t="s" s="2">
-        <v>430</v>
+        <v>131</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>430</v>
+        <v>132</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>431</v>
+        <v>133</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>432</v>
+        <v>134</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>74</v>
@@ -9404,30 +9485,30 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>429</v>
+        <v>312</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>401</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9438,7 +9519,7 @@
         <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>74</v>
@@ -9447,23 +9528,19 @@
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>395</v>
+        <v>167</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>74</v>
       </c>
@@ -9511,25 +9588,1410 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X78" s="2"/>
+      <c r="Y78" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AB79" s="2"/>
+      <c r="AC79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J81" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AF74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>401</v>
+      <c r="K81" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AB81" s="2"/>
+      <c r="AC81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -1008,7 +1008,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
